--- a/RMM/guidances/templates/resources/Plantilla - Informe de Seguimiento.xlsx
+++ b/RMM/guidances/templates/resources/Plantilla - Informe de Seguimiento.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Personal\Desktop\Artefactos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Artefactos\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="16665"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="16665" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Portada" sheetId="1" r:id="rId1"/>
@@ -36,9 +36,15 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
   <si>
+    <t>&lt;&lt;Nombre del Proceso.&gt;&gt;</t>
+  </si>
+  <si>
     <t>Elemento:</t>
   </si>
   <si>
+    <t>Proceso:</t>
+  </si>
+  <si>
     <t>Estado</t>
   </si>
   <si>
@@ -69,12 +75,12 @@
     <t>Compromisos</t>
   </si>
   <si>
-    <t>Responsible</t>
-  </si>
-  <si>
     <t>Fecha</t>
   </si>
   <si>
+    <t>&lt;&lt;Ingrese el objetivo del elemento al cual se le esta realizando el seguimiento.&gt;&gt;</t>
+  </si>
+  <si>
     <t>Objetivo:</t>
   </si>
   <si>
@@ -87,10 +93,6 @@
     <t>Tarea</t>
   </si>
   <si>
-    <t>&lt;&lt;Descripa los compromisos 
-para remediar  situaciones evidenciadas&gt;&gt;</t>
-  </si>
-  <si>
     <t>&lt;&lt;Ingrese una descripción general de lo realizado &gt;&gt;</t>
   </si>
   <si>
@@ -115,19 +117,17 @@
     <t>Fecha de la Siguiente Revisión</t>
   </si>
   <si>
-    <t>Activo</t>
-  </si>
-  <si>
-    <t>&lt;&lt;Nombre del Activo.&gt;&gt;</t>
-  </si>
-  <si>
-    <t>&lt;&lt;Ingrese el objetivo del elemento al cual se le está realizando el seguimiento.&gt;&gt;</t>
-  </si>
-  <si>
-    <t>&lt;&lt;Desciba los problemas o riesgos evidenciados&gt;&gt;</t>
-  </si>
-  <si>
-    <t>&lt;&lt;Elemento involucrado en el seguimiento, este puede ser un elemento constitutivo de un activo.&gt;&gt;</t>
+    <t>&lt;&lt;Elemento constitutivo del proceso involucrado en el seguimiento.&gt;&gt;</t>
+  </si>
+  <si>
+    <t>Responsable</t>
+  </si>
+  <si>
+    <t>&lt;&lt;Describa los problemas o riesgos evidenciados&gt;&gt;</t>
+  </si>
+  <si>
+    <t>&lt;&lt;Describa los compromisos 
+para remediar las situaciones evidenciadas&gt;&gt;</t>
   </si>
 </sst>
 </file>
@@ -836,7 +836,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B24:F30"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
@@ -844,7 +844,7 @@
   <sheetData>
     <row r="24" spans="2:6" ht="33">
       <c r="B24" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C24" s="10"/>
       <c r="D24" s="10"/>
@@ -860,7 +860,7 @@
     </row>
     <row r="26" spans="2:6" ht="18.75">
       <c r="B26" s="11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C26" s="10"/>
       <c r="D26" s="10"/>
@@ -903,14 +903,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M30"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" showRuler="0" view="pageLayout" zoomScale="70" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:M4"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" topLeftCell="A19" zoomScale="140" zoomScaleNormal="100" zoomScalePageLayoutView="140" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="14.5" customWidth="1"/>
-    <col min="2" max="2" width="10.25" customWidth="1"/>
+    <col min="2" max="2" width="11.375" customWidth="1"/>
     <col min="3" max="3" width="8.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
@@ -918,18 +918,18 @@
     <col min="7" max="7" width="7.375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7.375" customWidth="1"/>
-    <col min="10" max="10" width="26.375" customWidth="1"/>
-    <col min="11" max="11" width="24" customWidth="1"/>
+    <col min="10" max="10" width="24.25" customWidth="1"/>
+    <col min="11" max="11" width="26.625" customWidth="1"/>
     <col min="12" max="12" width="11.875" customWidth="1"/>
-    <col min="13" max="13" width="9.375" customWidth="1"/>
+    <col min="13" max="13" width="7.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="4" t="s">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="B1" s="35" t="s">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="C1" s="35"/>
       <c r="D1" s="35"/>
@@ -945,10 +945,10 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="4" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C2" s="35"/>
       <c r="D2" s="35"/>
@@ -964,10 +964,10 @@
     </row>
     <row r="3" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A3" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3" s="35" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C3" s="35"/>
       <c r="D3" s="35"/>
@@ -983,10 +983,10 @@
     </row>
     <row r="4" spans="1:13" ht="44.1" customHeight="1">
       <c r="A4" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B4" s="36" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="C4" s="36"/>
       <c r="D4" s="36"/>
@@ -1002,10 +1002,10 @@
     </row>
     <row r="5" spans="1:13" ht="45" customHeight="1">
       <c r="A5" s="5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B5" s="36" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5" s="36"/>
       <c r="D5" s="36"/>
@@ -1036,33 +1036,33 @@
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="25" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B7" s="25"/>
       <c r="C7" s="25" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D7" s="25" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E7" s="25"/>
       <c r="F7" s="25"/>
       <c r="G7" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H7" s="25"/>
       <c r="I7" s="25"/>
       <c r="J7" s="25" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K7" s="25" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="L7" s="25" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="M7" s="25" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -1070,17 +1070,17 @@
       <c r="B8" s="25"/>
       <c r="C8" s="25"/>
       <c r="D8" s="25" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E8" s="25" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F8" s="25"/>
       <c r="G8" s="25" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H8" s="25" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I8" s="25"/>
       <c r="J8" s="25"/>
@@ -1094,17 +1094,17 @@
       <c r="C9" s="25"/>
       <c r="D9" s="25"/>
       <c r="E9" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G9" s="25"/>
       <c r="H9" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="J9" s="25"/>
       <c r="K9" s="25"/>
@@ -1125,7 +1125,7 @@
         <v>29</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
@@ -1282,7 +1282,7 @@
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="25" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B21" s="25"/>
       <c r="C21" s="25"/>
@@ -1293,7 +1293,7 @@
       <c r="H21" s="33"/>
       <c r="I21" s="33"/>
       <c r="J21" s="33" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K21" s="33"/>
       <c r="L21" s="7"/>
@@ -1301,7 +1301,7 @@
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B22" s="17"/>
       <c r="C22" s="17"/>
@@ -1312,7 +1312,7 @@
       <c r="H22" s="12"/>
       <c r="I22" s="12"/>
       <c r="J22" s="12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K22" s="12"/>
       <c r="L22" s="12"/>
@@ -1329,7 +1329,7 @@
       <c r="H23" s="14"/>
       <c r="I23" s="14"/>
       <c r="J23" s="23" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K23" s="23"/>
       <c r="L23" s="14"/>
